--- a/medicine/Enfance/Jean_Lecointre/Jean_Lecointre.xlsx
+++ b/medicine/Enfance/Jean_Lecointre/Jean_Lecointre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Lecointre, est un illustrateur et réalisateur français né le 28 octobre 1964, réputé pour son travail de collages.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Formé à l'école supérieure d'arts graphiques Penninghen à Paris, Jean Lecointre a effectué de nombreux travaux de commande pour la presse (Libération, Les Inrockuptibles, WAD…) et publié des livres aux éditions Thierry Magnier et Cornélius.
-En 2003, il a réalisé la série d'animation Turkish Delight, pour Canal+[1].
+En 2003, il a réalisé la série d'animation Turkish Delight, pour Canal+.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Série, collection « Les Petits passe-temps », conception et réalisation de Lydie Roger-Lélé avec l'aide d'Alain Le Loki, images de Marion Bataille et Jean Lecointre, Seuil, 2000
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série, collection « Les Petits passe-temps », conception et réalisation de Lydie Roger-Lélé avec l'aide d'Alain Le Loki, images de Marion Bataille et Jean Lecointre, Seuil, 2000
 Maman je t'aime
 Nos remèdes de grand-mère
 Les odeurs de notre enfance
@@ -563,7 +579,7 @@
 Femmes entre ailes, Paris, Cornélius, 13 mars 2014, 45 p. (ISBN 978-2360810826)
 Hommes entre œufs, Paris, Cornélius, 13 mars 2014, 40 p. (ISBN 978-2360810833)
 Vous les avez aimés, mangez-les, texte Pascal Rémy, illustrations, Jean Lecointre, les Éd. de l'Épure, 2014
-Cache-cache cauchemars, Paris/impr. en République tchèque, Thierry Magnier, octobre 2018, 32 p. (ISBN 9791035201838) [2]</t>
+Cache-cache cauchemars, Paris/impr. en République tchèque, Thierry Magnier, octobre 2018, 32 p. (ISBN 9791035201838) </t>
         </is>
       </c>
     </row>
@@ -591,7 +607,9 @@
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2003 : Turkish Delight, série d'animation, pour Canal+
 2019 : A la mode (court-métrage)</t>
@@ -622,11 +640,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>« Pépite » de l'album (ancien Prix Baobab) 2013[3] du Salon du livre et de la presse jeunesse, pour L'Odyssée d'Outis
- Prix Libbylit 2018[4] décerné par l' IBBY, catégorie Album, pour Cache-cache cauchemars
- "Mention" Prix BolognaRagazzi 2023, catégorie spéciale Photographie[5], Foire du livre de jeunesse de Bologne  pour Cache-cache cauchemars</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« Pépite » de l'album (ancien Prix Baobab) 2013 du Salon du livre et de la presse jeunesse, pour L'Odyssée d'Outis
+ Prix Libbylit 2018 décerné par l' IBBY, catégorie Album, pour Cache-cache cauchemars
+ "Mention" Prix BolognaRagazzi 2023, catégorie spéciale Photographie, Foire du livre de jeunesse de Bologne  pour Cache-cache cauchemars</t>
         </is>
       </c>
     </row>
